--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_EVE.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_EVE.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: June, 2020        Evaluation Date: June 30, 2020</t>
   </si>
   <si>
-    <t>Printed on: 09/18/20 2:02:52 PM</t>
+    <t>Printed on: 11/12/20 4:45:09 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -4863,19 +4863,19 @@
         <v>15</v>
       </c>
       <c r="E10" s="253">
-        <v>17673.308800779942</v>
+        <v>17672.974797603842</v>
       </c>
       <c r="F10" s="249">
-        <v>232.14328108432892</v>
+        <v>232.07176390144377</v>
       </c>
       <c r="G10" s="249">
-        <v>1.3310078436110178</v>
+        <v>1.3306178209522388</v>
       </c>
       <c r="H10" s="249">
-        <v>21.44774380507446</v>
+        <v>21.447425403821615</v>
       </c>
       <c r="I10" s="249">
-        <v>12.273034859940616</v>
+        <v>12.266444538866429</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4883,19 +4883,19 @@
         <v>16</v>
       </c>
       <c r="E11" s="253">
-        <v>17633.89018277017</v>
+        <v>17633.557718962544</v>
       </c>
       <c r="F11" s="249">
-        <v>192.72466307455761</v>
+        <v>192.65468526014593</v>
       </c>
       <c r="G11" s="249">
-        <v>1.1049987620203554</v>
+        <v>1.1046141641167575</v>
       </c>
       <c r="H11" s="249">
-        <v>21.410499298760037</v>
+        <v>21.41018205775244</v>
       </c>
       <c r="I11" s="249">
-        <v>8.5485842284983491</v>
+        <v>8.5421099319489056</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -4903,19 +4903,19 @@
         <v>17</v>
       </c>
       <c r="E12" s="253">
-        <v>17542.900331058994</v>
+        <v>17542.590411351404</v>
       </c>
       <c r="F12" s="249">
-        <v>101.7348113633816</v>
+        <v>101.68737764900652</v>
       </c>
       <c r="G12" s="249">
-        <v>0.58330282599804772</v>
+        <v>0.58303963649421242</v>
       </c>
       <c r="H12" s="249">
-        <v>21.336871921994149</v>
+        <v>21.3365754037653</v>
       </c>
       <c r="I12" s="249">
-        <v>1.1858465519095554</v>
+        <v>1.1814445332347445</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
@@ -4923,7 +4923,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="265">
-        <v>17441.165519695613</v>
+        <v>17440.903033702398</v>
       </c>
       <c r="F13" s="266">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="266">
-        <v>21.325013456475052</v>
+        <v>21.32476095843295</v>
       </c>
       <c r="I13" s="266">
         <v>0</v>
@@ -4943,19 +4943,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="253">
-        <v>16979.3799343449</v>
+        <v>16979.157955212264</v>
       </c>
       <c r="F14" s="249">
-        <v>-461.78558535071352</v>
+        <v>-461.74507849013389</v>
       </c>
       <c r="G14" s="249">
-        <v>-2.6476761821292132</v>
+        <v>-2.6474837776339242</v>
       </c>
       <c r="H14" s="249">
-        <v>21.013917824955733</v>
+        <v>21.013700830259378</v>
       </c>
       <c r="I14" s="249">
-        <v>-31.109563151932019</v>
+        <v>-31.106012817357321</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -4963,19 +4963,19 @@
         <v>20</v>
       </c>
       <c r="E15" s="253">
-        <v>16190.220475926435</v>
+        <v>16190.031981207514</v>
       </c>
       <c r="F15" s="249">
-        <v>-1250.9450437691776</v>
+        <v>-1250.8710524948838</v>
       </c>
       <c r="G15" s="249">
-        <v>-7.1723706902301636</v>
+        <v>-7.172054394647625</v>
       </c>
       <c r="H15" s="249">
-        <v>20.364708596357133</v>
+        <v>20.36451978364639</v>
       </c>
       <c r="I15" s="249">
-        <v>-96.030486011792064</v>
+        <v>-96.0241174786561</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -4983,19 +4983,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="253">
-        <v>13711.207435006776</v>
+        <v>13711.068927088556</v>
       </c>
       <c r="F16" s="249">
-        <v>-3729.9580846888366</v>
+        <v>-3729.8341066138419</v>
       </c>
       <c r="G16" s="249">
-        <v>-21.385945110587613</v>
+        <v>-21.385556122904855</v>
       </c>
       <c r="H16" s="249">
-        <v>18.030987051800846</v>
+        <v>18.030837748675591</v>
       </c>
       <c r="I16" s="249">
-        <v>-329.40264046742078</v>
+        <v>-329.39232097573597</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -5003,19 +5003,19 @@
         <v>22</v>
       </c>
       <c r="E17" s="253">
-        <v>10619.394522077195</v>
+        <v>10619.289598923606</v>
       </c>
       <c r="F17" s="249">
-        <v>-6821.7709976184178</v>
+        <v>-6821.613434778792</v>
       </c>
       <c r="G17" s="249">
-        <v>-39.113045455103695</v>
+        <v>-39.112730697469416</v>
       </c>
       <c r="H17" s="249">
-        <v>14.745122758830815</v>
+        <v>14.744998553613678</v>
       </c>
       <c r="I17" s="249">
-        <v>-657.98906976442379</v>
+        <v>-657.97624048192733</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -5023,19 +5023,19 @@
         <v>23</v>
       </c>
       <c r="E18" s="253">
-        <v>7720.5341445042241</v>
+        <v>7720.4329650584741</v>
       </c>
       <c r="F18" s="249">
-        <v>-9720.6313751913876</v>
+        <v>-9720.4700686439246</v>
       </c>
       <c r="G18" s="249">
-        <v>-55.733840517792615</v>
+        <v>-55.733754438404439</v>
       </c>
       <c r="H18" s="249">
-        <v>11.315070039138128</v>
+        <v>11.314938530988844</v>
       </c>
       <c r="I18" s="249">
-        <v>-1000.9943417336925</v>
+        <v>-1000.9822427444107</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -5043,19 +5043,19 @@
         <v>24</v>
       </c>
       <c r="E19" s="253">
-        <v>15947.56517871502</v>
+        <v>15947.376181500069</v>
       </c>
       <c r="F19" s="249">
-        <v>-1493.6003409805926</v>
+        <v>-1493.5268522023289</v>
       </c>
       <c r="G19" s="249">
-        <v>-8.5636498277246975</v>
+        <v>-8.5633573520606827</v>
       </c>
       <c r="H19" s="249">
-        <v>20.439381598314718</v>
+        <v>20.43918887778856</v>
       </c>
       <c r="I19" s="249">
-        <v>-88.563185816033567</v>
+        <v>-88.557208064439124</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -5088,7 +5088,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="267">
-        <v>0.2132501345647505</v>
+        <v>0.21324760958432951</v>
       </c>
       <c r="F22" s="254" t="s">
         <v>27</v>
@@ -5100,7 +5100,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="267">
-        <v>0.18030987051800845</v>
+        <v>0.18030837748675593</v>
       </c>
       <c r="F23" s="254" t="s">
         <v>29</v>
@@ -5124,7 +5124,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="268">
-        <v>2.7250774197029042</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="F25" s="254" t="s">
         <v>34</v>
@@ -5144,52 +5144,52 @@
     </row>
     <row r="29" ht="9.95" customHeight="1">
       <c r="H29" s="249">
-        <v>82401.715357111359</v>
+        <v>82401.38135393527</v>
       </c>
     </row>
     <row r="30" ht="9.95" customHeight="1">
       <c r="H30" s="249">
-        <v>82360.9479475867</v>
+        <v>82360.615483779067</v>
       </c>
     </row>
     <row r="31" ht="9.95" customHeight="1">
       <c r="H31" s="249">
-        <v>82218.707574354834</v>
+        <v>82218.397654647226</v>
       </c>
     </row>
     <row r="32" ht="9.95" customHeight="1">
       <c r="H32" s="249">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
     </row>
     <row r="33" ht="9.95" customHeight="1">
       <c r="H33" s="249">
-        <v>80800.639251479835</v>
+        <v>80800.4172723472</v>
       </c>
     </row>
     <row r="34" ht="9.95" customHeight="1">
       <c r="H34" s="249">
-        <v>79501.360892650162</v>
+        <v>79501.172397931165</v>
       </c>
     </row>
     <row r="35" ht="9.95" customHeight="1">
       <c r="H35" s="249">
-        <v>76042.467312610985</v>
+        <v>76042.328804692763</v>
       </c>
     </row>
     <row r="36" ht="9.95" customHeight="1">
       <c r="H36" s="249">
-        <v>72019.709132073971</v>
+        <v>72019.604208920384</v>
       </c>
     </row>
     <row r="37" ht="9.95" customHeight="1">
       <c r="H37" s="249">
-        <v>68232.31423048531</v>
+        <v>68232.213051039565</v>
       </c>
     </row>
     <row r="38" ht="9.95" customHeight="1">
       <c r="H38" s="249">
-        <v>78023.71662765932</v>
+        <v>78023.527630444369</v>
       </c>
     </row>
     <row r="39" ht="9.95" customHeight="1">
@@ -5387,55 +5387,55 @@
         <v>103</v>
       </c>
       <c r="B7" s="275">
-        <v>3.4206848132894296</v>
+        <v>3.4206848132894252</v>
       </c>
       <c r="C7" s="276">
         <v>12.77207392197125</v>
       </c>
       <c r="D7" s="277">
-        <v>82401.715357111359</v>
+        <v>82401.38135393527</v>
       </c>
       <c r="E7" s="277">
-        <v>82360.9479475867</v>
+        <v>82360.615483779067</v>
       </c>
       <c r="F7" s="277">
-        <v>82218.707574354834</v>
+        <v>82218.397654647226</v>
       </c>
       <c r="G7" s="278">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
       <c r="H7" s="277">
-        <v>80800.639251479835</v>
+        <v>80800.4172723472</v>
       </c>
       <c r="I7" s="277">
-        <v>79501.360892650162</v>
+        <v>79501.172397931165</v>
       </c>
       <c r="J7" s="277">
-        <v>76042.467312610985</v>
+        <v>76042.328804692763</v>
       </c>
       <c r="K7" s="277">
-        <v>72019.709132073971</v>
+        <v>72019.604208920384</v>
       </c>
       <c r="L7" s="277">
-        <v>68232.31423048531</v>
+        <v>68232.213051039565</v>
       </c>
       <c r="M7" s="277">
-        <v>78023.71662765932</v>
+        <v>78023.527630444369</v>
       </c>
       <c r="N7" s="277">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="O7" s="277">
         <v>21.421082402733397</v>
       </c>
       <c r="P7" s="275">
-        <v>100.98425186115786</v>
+        <v>100.98392768030688</v>
       </c>
       <c r="Q7" s="275">
-        <v>1.8883848464580755</v>
+        <v>1.8882461750646133</v>
       </c>
       <c r="R7" s="275">
-        <v>-1.658374458500449</v>
+        <v>-1.6583748321812044</v>
       </c>
     </row>
     <row r="8">
@@ -5443,55 +5443,55 @@
         <v>104</v>
       </c>
       <c r="B8" s="275">
-        <v>3.4206848132894296</v>
+        <v>3.4206848132894252</v>
       </c>
       <c r="C8" s="276">
         <v>12.77207392197125</v>
       </c>
       <c r="D8" s="277">
-        <v>82401.715357111359</v>
+        <v>82401.38135393527</v>
       </c>
       <c r="E8" s="277">
-        <v>82360.9479475867</v>
+        <v>82360.615483779067</v>
       </c>
       <c r="F8" s="277">
-        <v>82218.707574354834</v>
+        <v>82218.397654647226</v>
       </c>
       <c r="G8" s="278">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
       <c r="H8" s="277">
-        <v>80800.639251479835</v>
+        <v>80800.4172723472</v>
       </c>
       <c r="I8" s="277">
-        <v>79501.360892650162</v>
+        <v>79501.172397931165</v>
       </c>
       <c r="J8" s="277">
-        <v>76042.467312610985</v>
+        <v>76042.328804692763</v>
       </c>
       <c r="K8" s="277">
-        <v>72019.709132073971</v>
+        <v>72019.604208920384</v>
       </c>
       <c r="L8" s="277">
-        <v>68232.31423048531</v>
+        <v>68232.213051039565</v>
       </c>
       <c r="M8" s="277">
-        <v>78023.71662765932</v>
+        <v>78023.527630444369</v>
       </c>
       <c r="N8" s="277">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="O8" s="277">
         <v>21.421082402733397</v>
       </c>
       <c r="P8" s="275">
-        <v>100.98425186115786</v>
+        <v>100.98392768030688</v>
       </c>
       <c r="Q8" s="275">
-        <v>1.8883848464580755</v>
+        <v>1.8882461750646133</v>
       </c>
       <c r="R8" s="275">
-        <v>-1.658374458500449</v>
+        <v>-1.6583748321812044</v>
       </c>
     </row>
     <row r="9">
@@ -5520,7 +5520,7 @@
         <v>63821.259317134929</v>
       </c>
       <c r="I9" s="277">
-        <v>63311.140416723727</v>
+        <v>63311.14041672364</v>
       </c>
       <c r="J9" s="277">
         <v>62331.2598776042</v>
@@ -5555,55 +5555,55 @@
         <v>102</v>
       </c>
       <c r="B10" s="280">
-        <v>13.973798914311564</v>
+        <v>13.973798914311525</v>
       </c>
       <c r="C10" s="281">
         <v>10.283367556468173</v>
       </c>
       <c r="D10" s="282">
-        <v>17673.308800779942</v>
+        <v>17672.974797603842</v>
       </c>
       <c r="E10" s="282">
-        <v>17633.89018277017</v>
+        <v>17633.557718962544</v>
       </c>
       <c r="F10" s="282">
-        <v>17542.900331058994</v>
+        <v>17542.590411351404</v>
       </c>
       <c r="G10" s="283">
-        <v>17441.165519695613</v>
+        <v>17440.903033702398</v>
       </c>
       <c r="H10" s="282">
-        <v>16979.3799343449</v>
+        <v>16979.157955212264</v>
       </c>
       <c r="I10" s="282">
-        <v>16190.220475926435</v>
+        <v>16190.031981207514</v>
       </c>
       <c r="J10" s="282">
-        <v>13711.207435006776</v>
+        <v>13711.068927088556</v>
       </c>
       <c r="K10" s="282">
-        <v>10619.394522077195</v>
+        <v>10619.289598923606</v>
       </c>
       <c r="L10" s="282">
-        <v>7720.5341445042241</v>
+        <v>7720.4329650584741</v>
       </c>
       <c r="M10" s="282">
-        <v>15947.56517871502</v>
+        <v>15947.376181500069</v>
       </c>
       <c r="N10" s="282">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="O10" s="282">
         <v>21.421082402733397</v>
       </c>
       <c r="P10" s="280">
-        <v>100.84955964391176</v>
+        <v>100.84804001215559</v>
       </c>
       <c r="Q10" s="280">
-        <v>2.7250774197029042</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="R10" s="280">
-        <v>-8.3902692955595928</v>
+        <v>-8.3903723630524389</v>
       </c>
     </row>
     <row r="12">
@@ -5919,16 +5919,16 @@
         <v>13.415468856947294</v>
       </c>
       <c r="D18" s="241">
-        <v>34475.1487240698</v>
+        <v>34475.1487240697</v>
       </c>
       <c r="E18" s="241">
-        <v>34475.1487240698</v>
+        <v>34475.1487240697</v>
       </c>
       <c r="F18" s="241">
         <v>34474.5153255993</v>
       </c>
       <c r="G18" s="273">
-        <v>34386.9586267555</v>
+        <v>34386.9586267556</v>
       </c>
       <c r="H18" s="241">
         <v>33919.9793205378</v>
@@ -5943,7 +5943,7 @@
         <v>27806.116170052497</v>
       </c>
       <c r="L18" s="241">
-        <v>25035.1372457675</v>
+        <v>25035.1372457676</v>
       </c>
       <c r="M18" s="241">
         <v>32607.2519065814</v>
@@ -5955,13 +5955,13 @@
         <v>18.316898647767697</v>
       </c>
       <c r="P18" s="242">
-        <v>97.788202720388469</v>
+        <v>97.788202720388753</v>
       </c>
       <c r="Q18" s="242">
-        <v>1.5300813504574478</v>
+        <v>1.5300813504589244</v>
       </c>
       <c r="R18" s="242">
-        <v>-3.6728179555438594</v>
+        <v>-3.6728179556327163</v>
       </c>
     </row>
     <row r="19" outlineLevel="2">
@@ -5975,49 +5975,49 @@
         <v>23.928815879534564</v>
       </c>
       <c r="D19" s="241">
-        <v>9349.92494904528</v>
+        <v>9349.91178450792</v>
       </c>
       <c r="E19" s="241">
-        <v>9341.11295081946</v>
+        <v>9341.1005246332988</v>
       </c>
       <c r="F19" s="241">
-        <v>9277.0789955981891</v>
+        <v>9277.07062719911</v>
       </c>
       <c r="G19" s="273">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="H19" s="241">
-        <v>8848.0721197244</v>
+        <v>8848.07874063484</v>
       </c>
       <c r="I19" s="241">
-        <v>8599.24336875364</v>
+        <v>8599.257225979849</v>
       </c>
       <c r="J19" s="241">
-        <v>8105.41475344598</v>
+        <v>8105.44229788292</v>
       </c>
       <c r="K19" s="241">
-        <v>7637.17790259317</v>
+        <v>7637.21757212382</v>
       </c>
       <c r="L19" s="241">
-        <v>7200.41161321685</v>
+        <v>7200.46150492344</v>
       </c>
       <c r="M19" s="241">
-        <v>8369.78703870918</v>
+        <v>8369.79675930245</v>
       </c>
       <c r="N19" s="241">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
       <c r="O19" s="241">
         <v>0</v>
       </c>
       <c r="P19" s="242">
-        <v>99.999843531856811</v>
+        <v>99.9998365141223</v>
       </c>
       <c r="Q19" s="242">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="R19" s="242">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="20" outlineLevel="2">
@@ -6031,49 +6031,49 @@
         <v>23.928815879534564</v>
       </c>
       <c r="D20" s="287">
-        <v>9349.92494904528</v>
+        <v>9349.91178450792</v>
       </c>
       <c r="E20" s="287">
-        <v>9341.11295081946</v>
+        <v>9341.1005246332988</v>
       </c>
       <c r="F20" s="287">
-        <v>9277.0789955981891</v>
+        <v>9277.07062719911</v>
       </c>
       <c r="G20" s="288">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="H20" s="287">
-        <v>8848.0721197244</v>
+        <v>8848.07874063484</v>
       </c>
       <c r="I20" s="287">
-        <v>8599.24336875364</v>
+        <v>8599.257225979849</v>
       </c>
       <c r="J20" s="287">
-        <v>8105.41475344598</v>
+        <v>8105.44229788292</v>
       </c>
       <c r="K20" s="287">
-        <v>7637.17790259317</v>
+        <v>7637.21757212382</v>
       </c>
       <c r="L20" s="287">
-        <v>7200.41161321685</v>
+        <v>7200.46150492344</v>
       </c>
       <c r="M20" s="287">
-        <v>8369.78703870918</v>
+        <v>8369.79675930245</v>
       </c>
       <c r="N20" s="287">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
       <c r="O20" s="287">
         <v>0</v>
       </c>
       <c r="P20" s="286">
-        <v>99.999843531856811</v>
+        <v>99.9998365141223</v>
       </c>
       <c r="Q20" s="286">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="R20" s="286">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="21" outlineLevel="2">
@@ -6087,49 +6087,49 @@
         <v>23.928815879534564</v>
       </c>
       <c r="D21" s="287">
-        <v>9349.92494904528</v>
+        <v>9349.91178450792</v>
       </c>
       <c r="E21" s="287">
-        <v>9341.11295081946</v>
+        <v>9341.1005246332988</v>
       </c>
       <c r="F21" s="287">
-        <v>9277.0789955981891</v>
+        <v>9277.07062719911</v>
       </c>
       <c r="G21" s="288">
-        <v>9092.98577235174</v>
+        <v>9092.98513422915</v>
       </c>
       <c r="H21" s="287">
-        <v>8848.0721197244</v>
+        <v>8848.07874063484</v>
       </c>
       <c r="I21" s="287">
-        <v>8599.24336875364</v>
+        <v>8599.257225979849</v>
       </c>
       <c r="J21" s="287">
-        <v>8105.41475344598</v>
+        <v>8105.44229788292</v>
       </c>
       <c r="K21" s="287">
-        <v>7637.17790259317</v>
+        <v>7637.21757212382</v>
       </c>
       <c r="L21" s="287">
-        <v>7200.41161321685</v>
+        <v>7200.46150492344</v>
       </c>
       <c r="M21" s="287">
-        <v>8369.78703870918</v>
+        <v>8369.79675930245</v>
       </c>
       <c r="N21" s="287">
-        <v>9093</v>
+        <v>9093.00000000001</v>
       </c>
       <c r="O21" s="287">
         <v>0</v>
       </c>
       <c r="P21" s="286">
-        <v>99.999843531856811</v>
+        <v>99.9998365141223</v>
       </c>
       <c r="Q21" s="286">
-        <v>5.2980052576130294</v>
+        <v>5.29784743314204</v>
       </c>
       <c r="R21" s="286">
-        <v>-0.43436571283579112</v>
+        <v>-0.43434340696426743</v>
       </c>
     </row>
     <row r="22" outlineLevel="1">
@@ -6143,49 +6143,49 @@
         <v>15.572895277207392</v>
       </c>
       <c r="D22" s="287">
-        <v>45944.482465333131</v>
+        <v>45944.469300795674</v>
       </c>
       <c r="E22" s="287">
-        <v>45902.886828365008</v>
+        <v>45902.87440217875</v>
       </c>
       <c r="F22" s="287">
-        <v>45774.189881285027</v>
+        <v>45774.181512885945</v>
       </c>
       <c r="G22" s="288">
-        <v>45421.829261061517</v>
+        <v>45421.828622939036</v>
       </c>
       <c r="H22" s="287">
-        <v>44627.707043488372</v>
+        <v>44627.713664398805</v>
       </c>
       <c r="I22" s="287">
-        <v>43533.645396256645</v>
+        <v>43533.659253482852</v>
       </c>
       <c r="J22" s="287">
-        <v>40513.592745172384</v>
+        <v>40513.620289609324</v>
       </c>
       <c r="K22" s="287">
-        <v>36949.0504698109</v>
+        <v>36949.090139341548</v>
       </c>
       <c r="L22" s="287">
-        <v>33618.6913640384</v>
+        <v>33618.741255745088</v>
       </c>
       <c r="M22" s="287">
-        <v>42722.828997341647</v>
+        <v>42722.838717934923</v>
       </c>
       <c r="N22" s="287">
-        <v>46505</v>
+        <v>46505.000000000007</v>
       </c>
       <c r="O22" s="287">
         <v>21.421082402733397</v>
       </c>
       <c r="P22" s="286">
-        <v>97.6247891165655</v>
+        <v>97.624787744406618</v>
       </c>
       <c r="Q22" s="286">
-        <v>2.5878047354853906</v>
+        <v>2.587773102567799</v>
       </c>
       <c r="R22" s="286">
-        <v>-2.8494525505408119</v>
+        <v>-2.8494481191300296</v>
       </c>
     </row>
     <row r="23" outlineLevel="2">
@@ -6202,7 +6202,7 @@
         <v>249.74643409433151</v>
       </c>
       <c r="E23" s="241">
-        <v>249.85013194485069</v>
+        <v>249.85013194485168</v>
       </c>
       <c r="F23" s="241">
         <v>249.90730418308252</v>
@@ -6214,7 +6214,7 @@
         <v>247.26253640982648</v>
       </c>
       <c r="I23" s="241">
-        <v>245.37277382085867</v>
+        <v>245.37277382085969</v>
       </c>
       <c r="J23" s="241">
         <v>241.67746655424858</v>
@@ -6226,22 +6226,22 @@
         <v>234.60512272306019</v>
       </c>
       <c r="M23" s="241">
-        <v>239.03498921755329</v>
+        <v>239.03498921755229</v>
       </c>
       <c r="N23" s="241">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
       <c r="O23" s="241">
         <v>0</v>
       </c>
       <c r="P23" s="242">
-        <v>106.94477954836057</v>
+        <v>106.94477954836012</v>
       </c>
       <c r="Q23" s="242">
-        <v>1.5288828845871156</v>
+        <v>1.5288828845870017</v>
       </c>
       <c r="R23" s="242">
-        <v>0.046108089388377321</v>
+        <v>0.046108089308535077</v>
       </c>
     </row>
     <row r="24" outlineLevel="2">
@@ -6258,7 +6258,7 @@
         <v>249.74643409433151</v>
       </c>
       <c r="E24" s="287">
-        <v>249.85013194485069</v>
+        <v>249.85013194485168</v>
       </c>
       <c r="F24" s="287">
         <v>249.90730418308252</v>
@@ -6270,7 +6270,7 @@
         <v>247.26253640982648</v>
       </c>
       <c r="I24" s="287">
-        <v>245.37277382085867</v>
+        <v>245.37277382085969</v>
       </c>
       <c r="J24" s="287">
         <v>241.67746655424858</v>
@@ -6282,22 +6282,22 @@
         <v>234.60512272306019</v>
       </c>
       <c r="M24" s="287">
-        <v>239.03498921755329</v>
+        <v>239.03498921755229</v>
       </c>
       <c r="N24" s="287">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
       <c r="O24" s="287">
         <v>0</v>
       </c>
       <c r="P24" s="286">
-        <v>106.94477954836057</v>
+        <v>106.94477954836012</v>
       </c>
       <c r="Q24" s="286">
-        <v>1.5288828845871156</v>
+        <v>1.5288828845870017</v>
       </c>
       <c r="R24" s="286">
-        <v>0.046108089388377321</v>
+        <v>0.046108089308535077</v>
       </c>
     </row>
     <row r="25" outlineLevel="2">
@@ -6305,55 +6305,55 @@
         <v>119</v>
       </c>
       <c r="B25" s="242">
-        <v>6.61053280784212</v>
+        <v>6.6105328078421195</v>
       </c>
       <c r="C25" s="242">
         <v>7.8850102669404514</v>
       </c>
       <c r="D25" s="241">
-        <v>704.45817466872563</v>
+        <v>704.45817466872347</v>
       </c>
       <c r="E25" s="241">
-        <v>704.63319018276366</v>
+        <v>704.63319018276252</v>
       </c>
       <c r="F25" s="241">
-        <v>704.859048923537</v>
+        <v>704.859048923536</v>
       </c>
       <c r="G25" s="273">
         <v>701.90741546520155</v>
       </c>
       <c r="H25" s="241">
-        <v>695.79866812287855</v>
+        <v>695.79866812287969</v>
       </c>
       <c r="I25" s="241">
-        <v>689.82116963265048</v>
+        <v>689.8211696326515</v>
       </c>
       <c r="J25" s="241">
-        <v>678.2420531840994</v>
+        <v>678.24205318409838</v>
       </c>
       <c r="K25" s="241">
-        <v>667.136320041998</v>
+        <v>667.13632004199894</v>
       </c>
       <c r="L25" s="241">
-        <v>656.47315331464142</v>
+        <v>656.47315331464233</v>
       </c>
       <c r="M25" s="241">
-        <v>672.4300084218778</v>
+        <v>672.43000842187882</v>
       </c>
       <c r="N25" s="241">
-        <v>651.999999999999</v>
+        <v>652</v>
       </c>
       <c r="O25" s="241">
         <v>0</v>
       </c>
       <c r="P25" s="242">
-        <v>107.65451157441758</v>
+        <v>107.65451157441741</v>
       </c>
       <c r="Q25" s="242">
-        <v>1.7336469129834295</v>
+        <v>1.7336469129827816</v>
       </c>
       <c r="R25" s="242">
-        <v>0.076425586266434378</v>
+        <v>0.07642558625347691</v>
       </c>
     </row>
     <row r="26" outlineLevel="2">
@@ -6423,34 +6423,34 @@
         <v>23.189596167008897</v>
       </c>
       <c r="D27" s="241">
-        <v>11787.909598202086</v>
+        <v>11787.588759563456</v>
       </c>
       <c r="E27" s="241">
-        <v>11787.965745908454</v>
+        <v>11787.645708287095</v>
       </c>
       <c r="F27" s="241">
-        <v>11777.525169112665</v>
+        <v>11777.223617804149</v>
       </c>
       <c r="G27" s="273">
-        <v>11770.921885924956</v>
+        <v>11770.66003805422</v>
       </c>
       <c r="H27" s="241">
-        <v>11722.082900844187</v>
+        <v>11721.854300801113</v>
       </c>
       <c r="I27" s="241">
-        <v>11657.586171901758</v>
+        <v>11657.383819956518</v>
       </c>
       <c r="J27" s="241">
-        <v>11491.457997661102</v>
+        <v>11491.29194530596</v>
       </c>
       <c r="K27" s="241">
-        <v>11294.930400948713</v>
+        <v>11294.785808264507</v>
       </c>
       <c r="L27" s="241">
-        <v>11089.24047350125</v>
+        <v>11089.089402348822</v>
       </c>
       <c r="M27" s="241">
-        <v>11380.430241322363</v>
+        <v>11380.231523514151</v>
       </c>
       <c r="N27" s="241">
         <v>10995</v>
@@ -6459,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="242">
-        <v>107.05704307344207</v>
+        <v>107.05466155574553</v>
       </c>
       <c r="Q27" s="242">
-        <v>0.69505305108535542</v>
+        <v>0.69418506824879578</v>
       </c>
       <c r="R27" s="242">
-        <v>-0.6327742729215019</v>
+        <v>-0.63277121902476763</v>
       </c>
     </row>
     <row r="28" outlineLevel="2">
@@ -6535,34 +6535,34 @@
         <v>23.173169062286107</v>
       </c>
       <c r="D29" s="287">
-        <v>11799.362345519487</v>
+        <v>11799.041506880854</v>
       </c>
       <c r="E29" s="287">
-        <v>11799.418487643146</v>
+        <v>11799.098450021789</v>
       </c>
       <c r="F29" s="287">
-        <v>11788.977639008244</v>
+        <v>11788.676087699729</v>
       </c>
       <c r="G29" s="288">
-        <v>11782.361046783783</v>
+        <v>11782.099198913047</v>
       </c>
       <c r="H29" s="287">
-        <v>11733.489203940642</v>
+        <v>11733.260603897572</v>
       </c>
       <c r="I29" s="287">
-        <v>11668.960013434809</v>
+        <v>11668.757661489572</v>
       </c>
       <c r="J29" s="287">
-        <v>11502.768070453876</v>
+        <v>11502.602018098734</v>
       </c>
       <c r="K29" s="287">
-        <v>11306.178189638898</v>
+        <v>11306.03359695469</v>
       </c>
       <c r="L29" s="287">
-        <v>11100.427400541374</v>
+        <v>11100.276329388944</v>
       </c>
       <c r="M29" s="287">
-        <v>11391.695097903452</v>
+        <v>11391.496380095239</v>
       </c>
       <c r="N29" s="287">
         <v>11006</v>
@@ -6571,13 +6571,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="286">
-        <v>107.05398007254027</v>
+        <v>107.05160093506312</v>
       </c>
       <c r="Q29" s="286">
-        <v>0.694932822372649</v>
+        <v>0.6940656795827983</v>
       </c>
       <c r="R29" s="286">
-        <v>-0.63214624251738116</v>
+        <v>-0.63214317762817374</v>
       </c>
     </row>
     <row r="30" outlineLevel="2">
@@ -6591,34 +6591,34 @@
         <v>23.162217659137578</v>
       </c>
       <c r="D30" s="287">
-        <v>11810.00238219998</v>
+        <v>11809.681543561348</v>
       </c>
       <c r="E30" s="287">
-        <v>11810.05852432364</v>
+        <v>11809.738486702281</v>
       </c>
       <c r="F30" s="287">
-        <v>11799.616343114858</v>
+        <v>11799.314791806344</v>
       </c>
       <c r="G30" s="288">
-        <v>11792.981056970415</v>
+        <v>11792.71920909968</v>
       </c>
       <c r="H30" s="287">
-        <v>11744.063622160245</v>
+        <v>11743.835022117173</v>
       </c>
       <c r="I30" s="287">
-        <v>11679.48916120267</v>
+        <v>11679.286809257434</v>
       </c>
       <c r="J30" s="287">
-        <v>11513.207631627633</v>
+        <v>11513.041579272489</v>
       </c>
       <c r="K30" s="287">
-        <v>11316.529419771241</v>
+        <v>11316.384827087033</v>
       </c>
       <c r="L30" s="287">
-        <v>11110.691535223494</v>
+        <v>11110.540464071064</v>
       </c>
       <c r="M30" s="287">
-        <v>11402.075860801519</v>
+        <v>11401.877142993304</v>
       </c>
       <c r="N30" s="287">
         <v>11016</v>
@@ -6627,13 +6627,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="286">
-        <v>107.05320494708074</v>
+        <v>107.05082796931445</v>
       </c>
       <c r="Q30" s="286">
-        <v>0.69506807634040479</v>
+        <v>0.69420171746477721</v>
       </c>
       <c r="R30" s="286">
-        <v>-0.63156620050552159</v>
+        <v>-0.63156312549551008</v>
       </c>
     </row>
     <row r="31" outlineLevel="2">
@@ -6709,7 +6709,7 @@
         <v>859.40429467286617</v>
       </c>
       <c r="F32" s="241">
-        <v>859.68583096876489</v>
+        <v>859.68583096876387</v>
       </c>
       <c r="G32" s="273">
         <v>856.25687237028285</v>
@@ -6718,16 +6718,16 @@
         <v>849.13528302492057</v>
       </c>
       <c r="I32" s="241">
-        <v>842.16720619739237</v>
+        <v>842.16720619739147</v>
       </c>
       <c r="J32" s="241">
         <v>828.67052241334216</v>
       </c>
       <c r="K32" s="241">
-        <v>815.72704738925654</v>
+        <v>815.72704738925563</v>
       </c>
       <c r="L32" s="241">
-        <v>803.30048841051553</v>
+        <v>803.30048841051644</v>
       </c>
       <c r="M32" s="241">
         <v>821.84138772262929</v>
@@ -6742,10 +6742,10 @@
         <v>107.30035994615059</v>
       </c>
       <c r="Q32" s="242">
-        <v>1.6559493494568653</v>
+        <v>1.6559493494573965</v>
       </c>
       <c r="R32" s="242">
-        <v>0.073265442993181357</v>
+        <v>0.07326544300380311</v>
       </c>
     </row>
     <row r="33" outlineLevel="2">
@@ -6765,7 +6765,7 @@
         <v>1979.4299418655726</v>
       </c>
       <c r="F33" s="287">
-        <v>1980.0783926323147</v>
+        <v>1980.0783926323138</v>
       </c>
       <c r="G33" s="288">
         <v>1972.1806158102511</v>
@@ -6774,16 +6774,16 @@
         <v>1955.7777571426093</v>
       </c>
       <c r="I33" s="287">
-        <v>1939.7284774320895</v>
+        <v>1939.7284774320885</v>
       </c>
       <c r="J33" s="287">
         <v>1908.6421305710796</v>
       </c>
       <c r="K33" s="287">
-        <v>1878.8299662925419</v>
+        <v>1878.829966292541</v>
       </c>
       <c r="L33" s="287">
-        <v>1850.208393105921</v>
+        <v>1850.2083931059221</v>
       </c>
       <c r="M33" s="287">
         <v>1892.9128704689119</v>
@@ -6798,10 +6798,10 @@
         <v>107.30035994615071</v>
       </c>
       <c r="Q33" s="286">
-        <v>1.6559493494553552</v>
+        <v>1.6559493494555859</v>
       </c>
       <c r="R33" s="286">
-        <v>0.073265442989378773</v>
+        <v>0.07326544299399039</v>
       </c>
     </row>
     <row r="34" outlineLevel="2">
@@ -6809,55 +6809,55 @@
         <v>128</v>
       </c>
       <c r="B34" s="286">
-        <v>6.4779096004104533</v>
+        <v>6.4779096004104542</v>
       </c>
       <c r="C34" s="286">
         <v>20.043805612594113</v>
       </c>
       <c r="D34" s="287">
-        <v>14743.143560873386</v>
+        <v>14742.822722234754</v>
       </c>
       <c r="E34" s="287">
-        <v>14743.971788316827</v>
+        <v>14743.65175069547</v>
       </c>
       <c r="F34" s="287">
-        <v>14734.461088853794</v>
+        <v>14734.159537545276</v>
       </c>
       <c r="G34" s="288">
-        <v>14716.250424593551</v>
+        <v>14715.988576722815</v>
       </c>
       <c r="H34" s="287">
-        <v>14642.902583835561</v>
+        <v>14642.673983792489</v>
       </c>
       <c r="I34" s="287">
-        <v>14554.411582088267</v>
+        <v>14554.209230143033</v>
       </c>
       <c r="J34" s="287">
-        <v>14341.76928193706</v>
+        <v>14341.603229581917</v>
       </c>
       <c r="K34" s="287">
-        <v>14100.585636711658</v>
+        <v>14100.441044027453</v>
       </c>
       <c r="L34" s="287">
-        <v>13851.978204367117</v>
+        <v>13851.827133214691</v>
       </c>
       <c r="M34" s="287">
-        <v>14206.453728909863</v>
+        <v>14206.25501110165</v>
       </c>
       <c r="N34" s="287">
-        <v>13739</v>
+        <v>13739.000000000004</v>
       </c>
       <c r="O34" s="287">
         <v>0</v>
       </c>
       <c r="P34" s="286">
-        <v>107.11296618817636</v>
+        <v>107.11106031532725</v>
       </c>
       <c r="Q34" s="286">
-        <v>0.88749404181391056</v>
+        <v>0.88680320541033275</v>
       </c>
       <c r="R34" s="286">
-        <v>-0.49186595650458864</v>
+        <v>-0.49186100658876725</v>
       </c>
     </row>
     <row r="35" outlineLevel="2">
@@ -6921,7 +6921,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="242">
-        <v>6.05824311406346</v>
+        <v>6.05824311406347</v>
       </c>
       <c r="C36" s="242">
         <v>3.2251882272416155</v>
@@ -6948,22 +6948,22 @@
         <v>3691.563451597603</v>
       </c>
       <c r="K36" s="241">
-        <v>3612.7790559190094</v>
+        <v>3612.7790559189993</v>
       </c>
       <c r="L36" s="241">
         <v>3537.5012399579368</v>
       </c>
       <c r="M36" s="241">
-        <v>3665.6386518393597</v>
+        <v>3665.6386518393497</v>
       </c>
       <c r="N36" s="241">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
       <c r="O36" s="241">
         <v>0</v>
       </c>
       <c r="P36" s="242">
-        <v>109.33584888806006</v>
+        <v>109.33584888805976</v>
       </c>
       <c r="Q36" s="242">
         <v>2.2746331366113579</v>
@@ -6977,16 +6977,16 @@
         <v>131</v>
       </c>
       <c r="B37" s="242">
-        <v>12.4060842696668</v>
+        <v>12.4060842696667</v>
       </c>
       <c r="C37" s="242">
         <v>4.32580424366872</v>
       </c>
       <c r="D37" s="241">
-        <v>2953.3989660824373</v>
+        <v>2953.3989660824277</v>
       </c>
       <c r="E37" s="241">
-        <v>2953.3989660824373</v>
+        <v>2953.3989660824277</v>
       </c>
       <c r="F37" s="241">
         <v>2953.0038126771742</v>
@@ -7010,7 +7010,7 @@
         <v>2776.323692892096</v>
       </c>
       <c r="M37" s="241">
-        <v>2832.8118797879156</v>
+        <v>2832.8118797879056</v>
       </c>
       <c r="N37" s="241">
         <v>2556</v>
@@ -7022,10 +7022,10 @@
         <v>115.15870765929972</v>
       </c>
       <c r="Q37" s="242">
-        <v>1.4962579545768859</v>
+        <v>1.4962579545785082</v>
       </c>
       <c r="R37" s="242">
-        <v>0.050179735630565193</v>
+        <v>0.050179735663009005</v>
       </c>
     </row>
     <row r="38" outlineLevel="2">
@@ -7033,7 +7033,7 @@
         <v>132</v>
       </c>
       <c r="B38" s="242">
-        <v>12.9523970419767</v>
+        <v>12.9523970419766</v>
       </c>
       <c r="C38" s="242">
         <v>3.3812457221081451</v>
@@ -7089,16 +7089,16 @@
         <v>133</v>
       </c>
       <c r="B39" s="286">
-        <v>12.580822947771246</v>
+        <v>12.580822947771143</v>
       </c>
       <c r="C39" s="286">
         <v>4.0328542094455848</v>
       </c>
       <c r="D39" s="287">
-        <v>4311.1220094401033</v>
+        <v>4311.1220094400942</v>
       </c>
       <c r="E39" s="287">
-        <v>4311.1220094401033</v>
+        <v>4311.1220094400942</v>
       </c>
       <c r="F39" s="287">
         <v>4310.6148997523505</v>
@@ -7122,7 +7122,7 @@
         <v>4061.8151560630695</v>
       </c>
       <c r="M39" s="287">
-        <v>4140.4674445605569</v>
+        <v>4140.4674445605469</v>
       </c>
       <c r="N39" s="287">
         <v>3758</v>
@@ -7134,10 +7134,10 @@
         <v>114.35432066240227</v>
       </c>
       <c r="Q39" s="286">
-        <v>1.4385352440938497</v>
+        <v>1.4385352440951196</v>
       </c>
       <c r="R39" s="286">
-        <v>0.0476002951016783</v>
+        <v>0.047600295127074692</v>
       </c>
     </row>
     <row r="40" outlineLevel="2">
@@ -7151,10 +7151,10 @@
         <v>3.1156741957563319</v>
       </c>
       <c r="D40" s="241">
-        <v>3478.5050442195184</v>
+        <v>3478.5050442195084</v>
       </c>
       <c r="E40" s="241">
-        <v>3478.5050442195184</v>
+        <v>3478.5050442195084</v>
       </c>
       <c r="F40" s="241">
         <v>3476.843124617867</v>
@@ -7163,16 +7163,16 @@
         <v>3454.9173038735526</v>
       </c>
       <c r="H40" s="241">
-        <v>3415.2508841021522</v>
+        <v>3415.2508841021618</v>
       </c>
       <c r="I40" s="241">
-        <v>3376.5301831056145</v>
+        <v>3376.5301831056249</v>
       </c>
       <c r="J40" s="241">
-        <v>3301.7979956113081</v>
+        <v>3301.7979956112986</v>
       </c>
       <c r="K40" s="241">
-        <v>3230.4782856294951</v>
+        <v>3230.4782856294846</v>
       </c>
       <c r="L40" s="241">
         <v>3162.3486193538106</v>
@@ -7313,55 +7313,55 @@
         <v>137</v>
       </c>
       <c r="B43" s="286">
-        <v>6.8199376557051838</v>
+        <v>6.8199376557051687</v>
       </c>
       <c r="C43" s="286">
         <v>12.717316906228611</v>
       </c>
       <c r="D43" s="287">
-        <v>26548.650358444909</v>
+        <v>26548.329519806262</v>
       </c>
       <c r="E43" s="287">
-        <v>26549.478585888352</v>
+        <v>26549.158548266976</v>
       </c>
       <c r="F43" s="287">
-        <v>26535.935159736466</v>
+        <v>26535.633608427954</v>
       </c>
       <c r="G43" s="288">
-        <v>26457.881789271371</v>
+        <v>26457.619941400637</v>
       </c>
       <c r="H43" s="287">
-        <v>26268.856763051052</v>
+        <v>26268.628163007994</v>
       </c>
       <c r="I43" s="287">
-        <v>26067.203177486415</v>
+        <v>26067.000825541192</v>
       </c>
       <c r="J43" s="287">
-        <v>25635.457670890391</v>
+        <v>25635.291618535237</v>
       </c>
       <c r="K43" s="287">
-        <v>25184.296447406603</v>
+        <v>25184.151854722379</v>
       </c>
       <c r="L43" s="287">
-        <v>24734.27502538505</v>
+        <v>24734.123954232618</v>
       </c>
       <c r="M43" s="287">
-        <v>25414.5254154612</v>
+        <v>25414.32669765297</v>
       </c>
       <c r="N43" s="287">
-        <v>24556.000000000004</v>
+        <v>24556.000000000018</v>
       </c>
       <c r="O43" s="287">
         <v>0</v>
       </c>
       <c r="P43" s="286">
-        <v>107.74507977386939</v>
+        <v>107.74401344437456</v>
       </c>
       <c r="Q43" s="286">
-        <v>1.3677380697862787</v>
+        <v>1.3673585726974706</v>
       </c>
       <c r="R43" s="286">
-        <v>-0.23474608592768934</v>
+        <v>-0.23474078804941462</v>
       </c>
     </row>
     <row r="44" outlineLevel="2">
@@ -7593,55 +7593,55 @@
         <v>106</v>
       </c>
       <c r="B48" s="286">
-        <v>3.4206848132894296</v>
+        <v>3.4206848132894252</v>
       </c>
       <c r="C48" s="295">
         <v>12.77207392197125</v>
       </c>
       <c r="D48" s="287">
-        <v>82401.715357111359</v>
+        <v>82401.38135393527</v>
       </c>
       <c r="E48" s="287">
-        <v>82360.9479475867</v>
+        <v>82360.615483779067</v>
       </c>
       <c r="F48" s="287">
-        <v>82218.707574354834</v>
+        <v>82218.397654647226</v>
       </c>
       <c r="G48" s="288">
-        <v>81787.35997186364</v>
+        <v>81787.097485870443</v>
       </c>
       <c r="H48" s="287">
-        <v>80800.639251479835</v>
+        <v>80800.4172723472</v>
       </c>
       <c r="I48" s="287">
-        <v>79501.360892650162</v>
+        <v>79501.172397931165</v>
       </c>
       <c r="J48" s="287">
-        <v>76042.467312610985</v>
+        <v>76042.328804692763</v>
       </c>
       <c r="K48" s="287">
-        <v>72019.709132073971</v>
+        <v>72019.604208920384</v>
       </c>
       <c r="L48" s="287">
-        <v>68232.31423048531</v>
+        <v>68232.213051039565</v>
       </c>
       <c r="M48" s="287">
-        <v>78023.71662765932</v>
+        <v>78023.527630444369</v>
       </c>
       <c r="N48" s="287">
-        <v>80969</v>
+        <v>80969.000000000029</v>
       </c>
       <c r="O48" s="287">
         <v>21.421082402733397</v>
       </c>
       <c r="P48" s="286">
-        <v>100.98425186115786</v>
+        <v>100.98392768030688</v>
       </c>
       <c r="Q48" s="286">
-        <v>1.8883848464580755</v>
+        <v>1.8882461750646133</v>
       </c>
       <c r="R48" s="286">
-        <v>-1.658374458500449</v>
+        <v>-1.6583748321812044</v>
       </c>
     </row>
     <row r="50">
@@ -7692,7 +7692,7 @@
         <v>22863.0506091961</v>
       </c>
       <c r="I51" s="241">
-        <v>22676.0212849699</v>
+        <v>22676.0212849698</v>
       </c>
       <c r="J51" s="241">
         <v>22315.193856347</v>
@@ -7972,7 +7972,7 @@
         <v>63541.259317134929</v>
       </c>
       <c r="I56" s="287">
-        <v>63031.140416723727</v>
+        <v>63031.14041672364</v>
       </c>
       <c r="J56" s="287">
         <v>62051.2598776042</v>
@@ -8140,7 +8140,7 @@
         <v>63821.259317134929</v>
       </c>
       <c r="I59" s="287">
-        <v>63311.140416723727</v>
+        <v>63311.14041672364</v>
       </c>
       <c r="J59" s="287">
         <v>62331.2598776042</v>
@@ -8197,55 +8197,55 @@
         <v>151</v>
       </c>
       <c r="B62" s="286">
-        <v>13.973798914311564</v>
+        <v>13.973798914311525</v>
       </c>
       <c r="C62" s="295">
         <v>10.283367556468173</v>
       </c>
       <c r="D62" s="287">
-        <v>17673.308800779942</v>
+        <v>17672.974797603842</v>
       </c>
       <c r="E62" s="287">
-        <v>17633.89018277017</v>
+        <v>17633.557718962544</v>
       </c>
       <c r="F62" s="287">
-        <v>17542.900331058994</v>
+        <v>17542.590411351404</v>
       </c>
       <c r="G62" s="288">
-        <v>17441.165519695613</v>
+        <v>17440.903033702398</v>
       </c>
       <c r="H62" s="287">
-        <v>16979.3799343449</v>
+        <v>16979.157955212264</v>
       </c>
       <c r="I62" s="287">
-        <v>16190.220475926435</v>
+        <v>16190.031981207514</v>
       </c>
       <c r="J62" s="287">
-        <v>13711.207435006776</v>
+        <v>13711.068927088556</v>
       </c>
       <c r="K62" s="287">
-        <v>10619.394522077195</v>
+        <v>10619.289598923606</v>
       </c>
       <c r="L62" s="287">
-        <v>7720.5341445042241</v>
+        <v>7720.4329650584741</v>
       </c>
       <c r="M62" s="287">
-        <v>15947.56517871502</v>
+        <v>15947.376181500069</v>
       </c>
       <c r="N62" s="287">
-        <v>17273</v>
+        <v>17273.000000000029</v>
       </c>
       <c r="O62" s="287">
         <v>21.421082402733397</v>
       </c>
       <c r="P62" s="286">
-        <v>100.84955964391176</v>
+        <v>100.84804001215559</v>
       </c>
       <c r="Q62" s="286">
-        <v>2.7250774197029042</v>
+        <v>2.72443972848535</v>
       </c>
       <c r="R62" s="286">
-        <v>-8.3902692955595928</v>
+        <v>-8.3903723630524389</v>
       </c>
     </row>
   </sheetData>
